--- a/Annotations/New/BlackPrism.xlsx
+++ b/Annotations/New/BlackPrism.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="blackprism (1)" sheetId="1" r:id="rId1"/>
@@ -2033,16 +2033,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.33203125" style="2" customWidth="1"/>
@@ -2108,7 +2108,7 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.29707720891371936</v>
+        <v>0.6437144329672273</v>
       </c>
       <c r="B2" s="2">
         <v>299</v>
@@ -2132,7 +2132,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54578470679424251</v>
+        <v>0.70947225972526284</v>
       </c>
       <c r="B3" s="2">
         <v>279</v>
@@ -2156,7 +2156,7 @@
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6273244444754149E-2</v>
+        <v>0.47443121060898319</v>
       </c>
       <c r="B4" s="2">
         <v>12</v>
@@ -2183,7 +2183,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30498645827884074</v>
+        <v>0.65322753158960001</v>
       </c>
       <c r="B5" s="2">
         <v>256</v>
@@ -2204,7 +2204,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22714418210476039</v>
+        <v>0.87399022227618639</v>
       </c>
       <c r="B6" s="2">
         <v>186</v>
@@ -2225,7 +2225,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61638758825752449</v>
+        <v>2.5273289590668213E-2</v>
       </c>
       <c r="B7" s="2">
         <v>219</v>
@@ -2249,7 +2249,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74459275703362104</v>
+        <v>0.3819013538628514</v>
       </c>
       <c r="B8" s="2">
         <v>177</v>
@@ -2276,7 +2276,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91526982027820614</v>
+        <v>0.74551855690522939</v>
       </c>
       <c r="B9" s="2">
         <v>208</v>
@@ -2300,7 +2300,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89366345892711274</v>
+        <v>0.51791177170532432</v>
       </c>
       <c r="B10" s="2">
         <v>222</v>
@@ -2324,7 +2324,7 @@
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61138805655412964</v>
+        <v>0.3743701202997225</v>
       </c>
       <c r="B11" s="2">
         <v>176</v>
@@ -2348,7 +2348,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14576205157734612</v>
+        <v>0.59235797970741277</v>
       </c>
       <c r="B12" s="2">
         <v>193</v>
@@ -2372,7 +2372,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57683792565397685</v>
+        <v>0.13860710745955551</v>
       </c>
       <c r="B13" s="2">
         <v>29</v>
@@ -2393,7 +2393,7 @@
     <row r="14" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97885194280446941</v>
+        <v>0.61806155967280085</v>
       </c>
       <c r="B14" s="2">
         <v>54</v>
@@ -2417,7 +2417,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74811312709433353</v>
+        <v>0.21072181766954334</v>
       </c>
       <c r="B15" s="2">
         <v>66</v>
@@ -2438,7 +2438,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5677412225108385E-2</v>
+        <v>0.246545448314616</v>
       </c>
       <c r="B16" s="2">
         <v>263</v>
@@ -2462,7 +2462,7 @@
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13677751279731098</v>
+        <v>0.35821898077781467</v>
       </c>
       <c r="B17" s="2">
         <v>101</v>
@@ -2483,7 +2483,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82714962185691265</v>
+        <v>0.16188337392558438</v>
       </c>
       <c r="B18" s="2">
         <v>306</v>
@@ -2507,7 +2507,7 @@
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6141673963722751E-2</v>
+        <v>3.8277215425553179E-2</v>
       </c>
       <c r="B19" s="2">
         <v>285</v>
@@ -2528,7 +2528,7 @@
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88886123885149793</v>
+        <v>0.58450677309876364</v>
       </c>
       <c r="B20" s="2">
         <v>341</v>
@@ -2552,7 +2552,7 @@
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76988774911494506</v>
+        <v>0.50868776147199946</v>
       </c>
       <c r="B21" s="2">
         <v>262</v>
@@ -2576,7 +2576,7 @@
     <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45355910989502013</v>
+        <v>0.53395028969184799</v>
       </c>
       <c r="B22" s="2">
         <v>340</v>
@@ -2597,7 +2597,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14361437442893688</v>
+        <v>6.3365609225003672E-2</v>
       </c>
       <c r="B23" s="2">
         <v>211</v>
@@ -2621,7 +2621,7 @@
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2021349075656268</v>
+        <v>0.61666265865695613</v>
       </c>
       <c r="B24" s="2">
         <v>233</v>
@@ -2645,7 +2645,7 @@
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70716491773033896</v>
+        <v>0.63212213372310067</v>
       </c>
       <c r="B25" s="2">
         <v>19</v>
@@ -2669,7 +2669,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20494167234897154</v>
+        <v>0.87920993125574198</v>
       </c>
       <c r="B26" s="2">
         <v>124</v>
@@ -2693,7 +2693,7 @@
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2579252306937313</v>
+        <v>0.93208381782601912</v>
       </c>
       <c r="B27" s="2">
         <v>236</v>
@@ -2720,7 +2720,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40673060451094778</v>
+        <v>0.1386024180535177</v>
       </c>
       <c r="B28" s="2">
         <v>132</v>
@@ -2744,7 +2744,7 @@
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97404404611036743</v>
+        <v>0.5123965740459473</v>
       </c>
       <c r="B29" s="2">
         <v>231</v>
@@ -2768,7 +2768,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27719272780622428</v>
+        <v>0.7805710888487688</v>
       </c>
       <c r="B30" s="2">
         <v>210</v>
@@ -2792,7 +2792,7 @@
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43325823754912807</v>
+        <v>0.79576045875052892</v>
       </c>
       <c r="B31" s="2">
         <v>180</v>
@@ -2813,7 +2813,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53533502931837729</v>
+        <v>0.49118116917722943</v>
       </c>
       <c r="B32" s="2">
         <v>131</v>
@@ -2840,7 +2840,7 @@
     <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15882642263314939</v>
+        <v>0.64450451878836257</v>
       </c>
       <c r="B33" s="2">
         <v>324</v>
@@ -2867,7 +2867,7 @@
     <row r="34" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61283507876480436</v>
+        <v>0.43624338516525707</v>
       </c>
       <c r="B34" s="2">
         <v>57</v>
@@ -2891,7 +2891,7 @@
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25413800983945356</v>
+        <v>0.22493351897828506</v>
       </c>
       <c r="B35" s="2">
         <v>109</v>
@@ -2912,7 +2912,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40337660694675348</v>
+        <v>0.41074732256275026</v>
       </c>
       <c r="B36" s="2">
         <v>156</v>
@@ -2936,7 +2936,7 @@
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42253454832092496</v>
+        <v>0.75162988902259897</v>
       </c>
       <c r="B37" s="2">
         <v>305</v>
@@ -2957,7 +2957,7 @@
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98845739376699004</v>
+        <v>0.16296418828571779</v>
       </c>
       <c r="B38" s="2">
         <v>311</v>
@@ -2984,7 +2984,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4624520238732921</v>
+        <v>0.49488815368185002</v>
       </c>
       <c r="B39" s="2">
         <v>239</v>
@@ -3008,7 +3008,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7074150196186189E-2</v>
+        <v>0.74334182902556112</v>
       </c>
       <c r="B40" s="2">
         <v>93</v>
@@ -3029,7 +3029,7 @@
     <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39312369776880185</v>
+        <v>0.37077918741597415</v>
       </c>
       <c r="B41" s="2">
         <v>163</v>
@@ -3056,7 +3056,7 @@
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86662556940494273</v>
+        <v>5.7193033788619285E-2</v>
       </c>
       <c r="B42" s="2">
         <v>76</v>
@@ -3077,7 +3077,7 @@
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64296527162779438</v>
+        <v>0.97345695290538414</v>
       </c>
       <c r="B43" s="2">
         <v>100</v>
@@ -3101,7 +3101,7 @@
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6288088659360183E-2</v>
+        <v>0.59655215447146193</v>
       </c>
       <c r="B44" s="2">
         <v>288</v>
@@ -3125,7 +3125,7 @@
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24050610367580239</v>
+        <v>0.20043280793228802</v>
       </c>
       <c r="B45" s="2">
         <v>166</v>
@@ -3146,7 +3146,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79508001685275675</v>
+        <v>0.84287894485582426</v>
       </c>
       <c r="B46" s="2">
         <v>126</v>
@@ -3170,7 +3170,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68588310246033224</v>
+        <v>0.44559125127936194</v>
       </c>
       <c r="B47" s="2">
         <v>241</v>
@@ -3194,7 +3194,7 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99410404086481274</v>
+        <v>0.93431753134984907</v>
       </c>
       <c r="B48" s="2">
         <v>349</v>
@@ -3215,7 +3215,7 @@
     <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33474000557751626</v>
+        <v>0.29599675344636067</v>
       </c>
       <c r="B49" s="2">
         <v>71</v>
@@ -3239,7 +3239,7 @@
     <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71005317248764843</v>
+        <v>0.66301632619446293</v>
       </c>
       <c r="B50" s="2">
         <v>308</v>
@@ -3263,7 +3263,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.47275493546109E-2</v>
+        <v>0.82959282524993483</v>
       </c>
       <c r="B51" s="2">
         <v>187</v>
@@ -3287,7 +3287,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7936012419312086E-2</v>
+        <v>6.3041456676979801E-2</v>
       </c>
       <c r="B52" s="2">
         <v>260</v>
@@ -3311,7 +3311,7 @@
     <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99239474615645251</v>
+        <v>0.12236187316006075</v>
       </c>
       <c r="B53" s="2">
         <v>290</v>
@@ -3335,7 +3335,7 @@
     <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18899235062418396</v>
+        <v>0.89609335988819616</v>
       </c>
       <c r="B54" s="2">
         <v>27</v>
@@ -3356,7 +3356,7 @@
     <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22931063003312357</v>
+        <v>7.1197771794081044E-2</v>
       </c>
       <c r="B55" s="2">
         <v>45</v>
@@ -3377,7 +3377,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6487759690333448E-2</v>
+        <v>0.3551738498660314</v>
       </c>
       <c r="B56" s="2">
         <v>122</v>
@@ -3398,7 +3398,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35252215592553227</v>
+        <v>0.18131449654090981</v>
       </c>
       <c r="B57" s="2">
         <v>192</v>
@@ -3422,7 +3422,7 @@
     <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86536218682715649</v>
+        <v>0.4776620780164883</v>
       </c>
       <c r="B58" s="2">
         <v>191</v>
@@ -3446,7 +3446,7 @@
     <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88897419258113475</v>
+        <v>0.98255553881737934</v>
       </c>
       <c r="B59" s="2">
         <v>359</v>
@@ -3470,7 +3470,7 @@
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75218500790864484</v>
+        <v>0.54901776884291831</v>
       </c>
       <c r="B60" s="2">
         <v>55</v>
@@ -3491,7 +3491,7 @@
     <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50329779770283234</v>
+        <v>0.67590912785593682</v>
       </c>
       <c r="B61" s="2">
         <v>245</v>
@@ -3515,7 +3515,7 @@
     <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3714220555227723</v>
+        <v>0.81264595472172052</v>
       </c>
       <c r="B62" s="2">
         <v>339</v>
@@ -3539,7 +3539,7 @@
     <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73475694954104165</v>
+        <v>0.55411604121942459</v>
       </c>
       <c r="B63" s="2">
         <v>184</v>
@@ -3560,7 +3560,7 @@
     <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68758737129020719</v>
+        <v>4.2616556624152202E-2</v>
       </c>
       <c r="B64" s="2">
         <v>104</v>
@@ -3581,7 +3581,7 @@
     <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3819359528514652</v>
+        <v>0.87780856220891701</v>
       </c>
       <c r="B65" s="2">
         <v>164</v>
@@ -3608,7 +3608,7 @@
     <row r="66" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.33668123049611665</v>
+        <v>6.6861277568225463E-2</v>
       </c>
       <c r="B66" s="2">
         <v>344</v>
@@ -3629,7 +3629,7 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44995889457201832</v>
+        <v>0.61890896693851938</v>
       </c>
       <c r="B67" s="2">
         <v>152</v>
@@ -3653,7 +3653,7 @@
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4400748659386039</v>
+        <v>0.62186769218305982</v>
       </c>
       <c r="B68" s="2">
         <v>39</v>
@@ -3677,7 +3677,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34042252134030038</v>
+        <v>0.43627825526705466</v>
       </c>
       <c r="B69" s="2">
         <v>261</v>
@@ -3698,7 +3698,7 @@
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7492487584546947E-2</v>
+        <v>0.98838921574558747</v>
       </c>
       <c r="B70" s="2">
         <v>221</v>
@@ -3722,7 +3722,7 @@
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5978473174085432E-2</v>
+        <v>0.91356332861454281</v>
       </c>
       <c r="B71" s="2">
         <v>138</v>
@@ -3746,7 +3746,7 @@
     <row r="72" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50740907943462144</v>
+        <v>0.51674878680143332</v>
       </c>
       <c r="B72" s="2">
         <v>360</v>
@@ -3770,7 +3770,7 @@
     <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54637584380277793</v>
+        <v>0.6065481644966485</v>
       </c>
       <c r="B73" s="2">
         <v>167</v>
@@ -3791,7 +3791,7 @@
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48939478266617742</v>
+        <v>0.91431852249690881</v>
       </c>
       <c r="B74" s="2">
         <v>197</v>
@@ -3812,7 +3812,7 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11029525002614327</v>
+        <v>0.52156804735348772</v>
       </c>
       <c r="B75" s="2">
         <v>60</v>
@@ -3833,7 +3833,7 @@
     <row r="76" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80334151991247749</v>
+        <v>0.95937459614270226</v>
       </c>
       <c r="B76" s="2">
         <v>90</v>
@@ -3857,7 +3857,7 @@
     <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11862570437670339</v>
+        <v>0.66479824023173151</v>
       </c>
       <c r="B77" s="2">
         <v>267</v>
@@ -3881,7 +3881,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24215589143636762</v>
+        <v>0.59598582572190073</v>
       </c>
       <c r="B78" s="2">
         <v>185</v>
@@ -3908,7 +3908,7 @@
     <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47489276449409312</v>
+        <v>8.2383352413644029E-2</v>
       </c>
       <c r="B79" s="2">
         <v>106</v>
@@ -3932,7 +3932,7 @@
     <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58450162336382794</v>
+        <v>0.32318847969950404</v>
       </c>
       <c r="B80" s="2">
         <v>128</v>
@@ -3953,7 +3953,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22964904533617847</v>
+        <v>0.93409628568088854</v>
       </c>
       <c r="B81" s="2">
         <v>130</v>
@@ -3974,7 +3974,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78888552505711163</v>
+        <v>0.33035999640992397</v>
       </c>
       <c r="B82" s="2">
         <v>48</v>
@@ -3995,7 +3995,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39816342922610592</v>
+        <v>0.47613419327657447</v>
       </c>
       <c r="B83" s="2">
         <v>92</v>
@@ -4016,7 +4016,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65239314092556733</v>
+        <v>0.58975572910626217</v>
       </c>
       <c r="B84" s="2">
         <v>302</v>
@@ -4040,7 +4040,7 @@
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86713179609356295</v>
+        <v>0.98294416695582754</v>
       </c>
       <c r="B85" s="2">
         <v>94</v>
@@ -4061,7 +4061,7 @@
     <row r="86" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44883656335125133</v>
+        <v>0.76380438459097533</v>
       </c>
       <c r="B86" s="2">
         <v>84</v>
@@ -4088,7 +4088,7 @@
     <row r="87" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75704792588293779</v>
+        <v>0.62151656298203861</v>
       </c>
       <c r="B87" s="2">
         <v>235</v>
@@ -4112,7 +4112,7 @@
     <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24087835225445597</v>
+        <v>0.49023233125173538</v>
       </c>
       <c r="B88" s="2">
         <v>56</v>
@@ -4136,7 +4136,7 @@
     <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14593735346935865</v>
+        <v>0.26164193194735785</v>
       </c>
       <c r="B89" s="2">
         <v>169</v>
@@ -4157,7 +4157,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31906946199360675</v>
+        <v>0.8760473850707724</v>
       </c>
       <c r="B90" s="2">
         <v>242</v>
@@ -4178,7 +4178,7 @@
     <row r="91" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21679226484519032</v>
+        <v>0.28968689561613548</v>
       </c>
       <c r="B91" s="2">
         <v>83</v>
@@ -4202,7 +4202,7 @@
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74747826438165621</v>
+        <v>2.4160467895638971E-2</v>
       </c>
       <c r="B92" s="2">
         <v>87</v>
@@ -4223,7 +4223,7 @@
     <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48184191351556294</v>
+        <v>0.15811386269325156</v>
       </c>
       <c r="B93" s="2">
         <v>333</v>
@@ -4247,7 +4247,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52957186525746613</v>
+        <v>0.23526950847669192</v>
       </c>
       <c r="B94" s="2">
         <v>365</v>
@@ -4268,7 +4268,7 @@
     <row r="95" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48576183481232416</v>
+        <v>0.9143035113045378</v>
       </c>
       <c r="B95" s="2">
         <v>51</v>
@@ -4289,7 +4289,7 @@
     <row r="96" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81849563410035209</v>
+        <v>0.74233410274245981</v>
       </c>
       <c r="B96" s="2">
         <v>160</v>
@@ -4316,7 +4316,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.207965944120228E-2</v>
+        <v>0.59329701493806986</v>
       </c>
       <c r="B97" s="2">
         <v>116</v>
@@ -4343,7 +4343,7 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92331409856221325</v>
+        <v>0.98498163416932882</v>
       </c>
       <c r="B98" s="2">
         <v>243</v>
@@ -4367,7 +4367,7 @@
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69232778405175255</v>
+        <v>0.45964992352410194</v>
       </c>
       <c r="B99" s="2">
         <v>11</v>
@@ -4388,7 +4388,7 @@
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13629054595448842</v>
+        <v>0.12844420719831007</v>
       </c>
       <c r="B100" s="2">
         <v>230</v>
@@ -4412,7 +4412,7 @@
     <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0581048644353004E-2</v>
+        <v>0.140958506534965</v>
       </c>
       <c r="B101" s="2">
         <v>337</v>
@@ -4433,7 +4433,7 @@
     <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8518954487509629E-2</v>
+        <v>0.28580118053247572</v>
       </c>
       <c r="B102" s="2">
         <v>18</v>
@@ -4454,7 +4454,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94612930419565833</v>
+        <v>0.49761914345653013</v>
       </c>
       <c r="B103" s="2">
         <v>313</v>
@@ -4478,7 +4478,7 @@
     <row r="104" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56147109218383606</v>
+        <v>0.65527788472233273</v>
       </c>
       <c r="B104" s="2">
         <v>4</v>
@@ -4499,7 +4499,7 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80894122526511958</v>
+        <v>0.9052416475628241</v>
       </c>
       <c r="B105" s="2">
         <v>125</v>
@@ -4523,7 +4523,7 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84557745654544725</v>
+        <v>0.74840196597584407</v>
       </c>
       <c r="B106" s="2">
         <v>317</v>
@@ -4547,7 +4547,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74080746891607852</v>
+        <v>0.53217365843574749</v>
       </c>
       <c r="B107" s="2">
         <v>283</v>
@@ -4571,7 +4571,7 @@
     <row r="108" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18537807752470525</v>
+        <v>0.51680940160173672</v>
       </c>
       <c r="B108" s="2">
         <v>325</v>
@@ -4598,7 +4598,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88876559576005976</v>
+        <v>0.73721925009451306</v>
       </c>
       <c r="B109" s="2">
         <v>307</v>
@@ -4625,7 +4625,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69193424967606232</v>
+        <v>0.23439788328187483</v>
       </c>
       <c r="B110" s="2">
         <v>371</v>
@@ -4649,7 +4649,7 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99239954675946396</v>
+        <v>0.76052802572487777</v>
       </c>
       <c r="B111" s="2">
         <v>298</v>
@@ -4670,7 +4670,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42011864312360392</v>
+        <v>0.81880854061489994</v>
       </c>
       <c r="B112" s="2">
         <v>316</v>
@@ -4694,7 +4694,7 @@
     <row r="113" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46832450284353677</v>
+        <v>0.99355013406946913</v>
       </c>
       <c r="B113" s="2">
         <v>86</v>
@@ -4718,7 +4718,7 @@
     <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43121836052213314</v>
+        <v>0.68248095173294943</v>
       </c>
       <c r="B114" s="2">
         <v>70</v>
@@ -4742,7 +4742,7 @@
     <row r="115" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66669406872522541</v>
+        <v>0.65087469338940862</v>
       </c>
       <c r="B115" s="2">
         <v>329</v>
@@ -4766,7 +4766,7 @@
     <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35312956866298251</v>
+        <v>5.0760311134610658E-2</v>
       </c>
       <c r="B116" s="2">
         <v>98</v>
@@ -4787,7 +4787,7 @@
     <row r="117" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8658662166149973</v>
+        <v>0.5665206210180761</v>
       </c>
       <c r="B117" s="2">
         <v>14</v>
@@ -4811,7 +4811,7 @@
     <row r="118" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8024025185797925</v>
+        <v>0.80979933433599627</v>
       </c>
       <c r="B118" s="2">
         <v>178</v>
@@ -4832,7 +4832,7 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3487911848124845</v>
+        <v>7.2384729234108547E-2</v>
       </c>
       <c r="B119" s="2">
         <v>353</v>
@@ -4853,7 +4853,7 @@
     <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21222584126081767</v>
+        <v>0.70582171837499752</v>
       </c>
       <c r="B120" s="2">
         <v>336</v>
@@ -4874,7 +4874,7 @@
     <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7557547247076456</v>
+        <v>0.11424991862889688</v>
       </c>
       <c r="B121" s="2">
         <v>69</v>
@@ -4898,7 +4898,7 @@
     <row r="122" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72470257205384503</v>
+        <v>0.31996895748323173</v>
       </c>
       <c r="B122" s="2">
         <v>268</v>
@@ -4922,7 +4922,7 @@
     <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2638061165244814E-2</v>
+        <v>0.29594552036624922</v>
       </c>
       <c r="B123" s="2">
         <v>252</v>
@@ -4943,7 +4943,7 @@
     <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91738275399525593</v>
+        <v>0.87183364440864353</v>
       </c>
       <c r="B124" s="2">
         <v>266</v>
@@ -4964,7 +4964,7 @@
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1489677569774277</v>
+        <v>0.46386424639036727</v>
       </c>
       <c r="B125" s="2">
         <v>209</v>
@@ -4988,7 +4988,7 @@
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63396091956829626</v>
+        <v>0.83532018241346262</v>
       </c>
       <c r="B126" s="2">
         <v>155</v>
@@ -5012,7 +5012,7 @@
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54217702059933148</v>
+        <v>0.81698505595982474</v>
       </c>
       <c r="B127" s="2">
         <v>38</v>
@@ -5033,7 +5033,7 @@
     <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42802219381271811</v>
+        <v>0.32765442800725086</v>
       </c>
       <c r="B128" s="2">
         <v>73</v>
@@ -5057,7 +5057,7 @@
     <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65190372501026872</v>
+        <v>0.61427692784798871</v>
       </c>
       <c r="B129" s="2">
         <v>289</v>
@@ -5081,7 +5081,7 @@
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.38256381446316368</v>
+        <v>0.28612484013629802</v>
       </c>
       <c r="B130" s="2">
         <v>287</v>
@@ -5105,7 +5105,7 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76149461638807392</v>
+        <v>0.72952022358467716</v>
       </c>
       <c r="B131" s="2">
         <v>281</v>
@@ -5129,7 +5129,7 @@
     <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1440118759976019</v>
+        <v>0.14672444464530077</v>
       </c>
       <c r="B132" s="2">
         <v>97</v>
@@ -5153,7 +5153,7 @@
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90097857639288936</v>
+        <v>0.88525262302976582</v>
       </c>
       <c r="B133" s="2">
         <v>274</v>
@@ -5177,7 +5177,7 @@
     <row r="134" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87291424614650814</v>
+        <v>0.30928623998189253</v>
       </c>
       <c r="B134" s="2">
         <v>139</v>
@@ -5201,7 +5201,7 @@
     <row r="135" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16276945303823953</v>
+        <v>0.1579042799755902</v>
       </c>
       <c r="B135" s="2">
         <v>42</v>
@@ -5222,7 +5222,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29986210619861331</v>
+        <v>0.98077696892084443</v>
       </c>
       <c r="B136" s="2">
         <v>212</v>
@@ -5246,7 +5246,7 @@
     <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94697669329730383</v>
+        <v>4.4483421398768819E-3</v>
       </c>
       <c r="B137" s="2">
         <v>118</v>
@@ -5273,7 +5273,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36424068642121643</v>
+        <v>0.91684794425000626</v>
       </c>
       <c r="B138" s="2">
         <v>300</v>
@@ -5297,7 +5297,7 @@
     <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42175976137618487</v>
+        <v>0.33793918810087509</v>
       </c>
       <c r="B139" s="2">
         <v>377</v>
@@ -5321,7 +5321,7 @@
     <row r="140" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56598139499859745</v>
+        <v>0.39176296459366999</v>
       </c>
       <c r="B140" s="2">
         <v>237</v>
@@ -5348,7 +5348,7 @@
     <row r="141" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4232824611469868E-2</v>
+        <v>0.81804357421806018</v>
       </c>
       <c r="B141" s="2">
         <v>58</v>
@@ -5372,7 +5372,7 @@
     <row r="142" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10162557189787846</v>
+        <v>0.64974229142547235</v>
       </c>
       <c r="B142" s="2">
         <v>373</v>
@@ -5399,7 +5399,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30774116822874975</v>
+        <v>0.20031380820834965</v>
       </c>
       <c r="B143" s="2">
         <v>255</v>
@@ -5420,7 +5420,7 @@
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4964091012627323</v>
+        <v>0.16264174121195962</v>
       </c>
       <c r="B144" s="2">
         <v>9</v>
@@ -5444,7 +5444,7 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6331760941593636</v>
+        <v>0.98566864030868973</v>
       </c>
       <c r="B145" s="2">
         <v>198</v>
@@ -5468,7 +5468,7 @@
     <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30249101651404109</v>
+        <v>5.463515509738559E-3</v>
       </c>
       <c r="B146" s="2">
         <v>35</v>
@@ -5489,7 +5489,7 @@
     <row r="147" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32525835412070259</v>
+        <v>0.80047550673472245</v>
       </c>
       <c r="B147" s="2">
         <v>144</v>
@@ -5513,7 +5513,7 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86834144846221784</v>
+        <v>0.46703109690567735</v>
       </c>
       <c r="B148" s="2">
         <v>348</v>
@@ -5540,7 +5540,7 @@
     <row r="149" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82044333951879467</v>
+        <v>0.64695743762826563</v>
       </c>
       <c r="B149" s="2">
         <v>68</v>
@@ -5564,7 +5564,7 @@
     <row r="150" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84223275651761231</v>
+        <v>0.10543079321915028</v>
       </c>
       <c r="B150" s="2">
         <v>296</v>
@@ -5588,7 +5588,7 @@
     <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76320556388013761</v>
+        <v>0.28547911169886797</v>
       </c>
       <c r="B151" s="2">
         <v>136</v>
@@ -5612,7 +5612,7 @@
     <row r="152" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64843958759973586</v>
+        <v>0.45836470951584396</v>
       </c>
       <c r="B152" s="2">
         <v>142</v>
@@ -5636,7 +5636,7 @@
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68488959416980622</v>
+        <v>0.86430152932750148</v>
       </c>
       <c r="B153" s="2">
         <v>200</v>
@@ -5660,7 +5660,7 @@
     <row r="154" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75999148753793777</v>
+        <v>0.79865844119812734</v>
       </c>
       <c r="B154" s="2">
         <v>328</v>
@@ -5687,7 +5687,7 @@
     <row r="155" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43490451587563772</v>
+        <v>0.39271780151009417</v>
       </c>
       <c r="B155" s="2">
         <v>346</v>
@@ -5711,7 +5711,7 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71445428924429577</v>
+        <v>0.31962084165013738</v>
       </c>
       <c r="B156" s="2">
         <v>251</v>
@@ -5732,7 +5732,7 @@
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81098528128219927</v>
+        <v>0.95937844919110682</v>
       </c>
       <c r="B157" s="2">
         <v>321</v>
@@ -5753,7 +5753,7 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88628840016595101</v>
+        <v>0.57005041654068711</v>
       </c>
       <c r="B158" s="2">
         <v>115</v>
@@ -5777,7 +5777,7 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36626605026298009</v>
+        <v>0.22903977450352198</v>
       </c>
       <c r="B159" s="2">
         <v>301</v>
@@ -5801,7 +5801,7 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94949881689622162</v>
+        <v>0.67742963987905047</v>
       </c>
       <c r="B160" s="2">
         <v>275</v>
@@ -5822,7 +5822,7 @@
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3511826981870616</v>
+        <v>0.48687408057554793</v>
       </c>
       <c r="B161" s="2">
         <v>77</v>
@@ -5846,7 +5846,7 @@
     <row r="162" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8027019287818653</v>
+        <v>1.5859838058317477E-3</v>
       </c>
       <c r="B162" s="2">
         <v>91</v>
@@ -5870,7 +5870,7 @@
     <row r="163" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55594065229616685</v>
+        <v>5.9844947584844821E-2</v>
       </c>
       <c r="B163" s="2">
         <v>53</v>
@@ -5891,7 +5891,7 @@
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29790924368543992</v>
+        <v>0.5351635533125606</v>
       </c>
       <c r="B164" s="2">
         <v>204</v>
@@ -5912,7 +5912,7 @@
     <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33147450794758559</v>
+        <v>0.14744218120671659</v>
       </c>
       <c r="B165" s="2">
         <v>133</v>
@@ -5936,7 +5936,7 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1875011573716017E-2</v>
+        <v>0.70406892384649455</v>
       </c>
       <c r="B166" s="2">
         <v>153</v>
@@ -5960,7 +5960,7 @@
     <row r="167" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50152011986766176</v>
+        <v>0.2618761683960138</v>
       </c>
       <c r="B167" s="2">
         <v>361</v>
@@ -5984,7 +5984,7 @@
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.7672685133921568E-3</v>
+        <v>0.73278026392276119</v>
       </c>
       <c r="B168" s="2">
         <v>314</v>
@@ -6005,7 +6005,7 @@
     <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88712538667532947</v>
+        <v>0.60296234086017864</v>
       </c>
       <c r="B169" s="2">
         <v>49</v>
@@ -6026,7 +6026,7 @@
     <row r="170" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22703957999907243</v>
+        <v>0.86652993898372244</v>
       </c>
       <c r="B170" s="2">
         <v>143</v>
@@ -6050,7 +6050,7 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59583649006403205</v>
+        <v>2.7993363569096985E-2</v>
       </c>
       <c r="B171" s="2">
         <v>154</v>
@@ -6074,7 +6074,7 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8248200612033344</v>
+        <v>0.11157885698346237</v>
       </c>
       <c r="B172" s="2">
         <v>228</v>
@@ -6098,7 +6098,7 @@
     <row r="173" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5426949521914155</v>
+        <v>2.0242673520516341E-3</v>
       </c>
       <c r="B173" s="2">
         <v>5</v>
@@ -6122,7 +6122,7 @@
     <row r="174" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42538657562230386</v>
+        <v>0.24224803096163616</v>
       </c>
       <c r="B174" s="2">
         <v>21</v>
@@ -6146,7 +6146,7 @@
     <row r="175" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8986991283636825E-2</v>
+        <v>0.9359213046289051</v>
       </c>
       <c r="B175" s="2">
         <v>80</v>
@@ -6170,7 +6170,7 @@
     <row r="176" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26622830740432868</v>
+        <v>0.77440031334951065</v>
       </c>
       <c r="B176" s="2">
         <v>89</v>
@@ -6197,7 +6197,7 @@
     <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1323896493947383</v>
+        <v>0.30637195984963417</v>
       </c>
       <c r="B177" s="2">
         <v>31</v>
@@ -6221,7 +6221,7 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36585776747178489</v>
+        <v>0.6484965825095087</v>
       </c>
       <c r="B178" s="2">
         <v>121</v>
@@ -6245,7 +6245,7 @@
     <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6785260767919955</v>
+        <v>0.39256891129562788</v>
       </c>
       <c r="B179" s="2">
         <v>112</v>
@@ -6269,7 +6269,7 @@
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5121518741456748E-2</v>
+        <v>0.61986818188390469</v>
       </c>
       <c r="B180" s="2">
         <v>135</v>
@@ -6293,7 +6293,7 @@
     <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73336182313180132</v>
+        <v>0.28568293188144467</v>
       </c>
       <c r="B181" s="2">
         <v>264</v>
@@ -6317,7 +6317,7 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42815470478644968</v>
+        <v>0.96057541771865862</v>
       </c>
       <c r="B182" s="2">
         <v>225</v>
@@ -6338,7 +6338,7 @@
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88324929847759048</v>
+        <v>4.9078948584721283E-2</v>
       </c>
       <c r="B183" s="2">
         <v>366</v>
@@ -6359,7 +6359,7 @@
     <row r="184" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2314846423576165E-2</v>
+        <v>0.47216530146387481</v>
       </c>
       <c r="B184" s="2">
         <v>265</v>
@@ -6383,7 +6383,7 @@
     <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35329726349573687</v>
+        <v>0.57120852520454535</v>
       </c>
       <c r="B185" s="2">
         <v>195</v>
@@ -6407,7 +6407,7 @@
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85310957762880346</v>
+        <v>0.27684511488998764</v>
       </c>
       <c r="B186" s="2">
         <v>246</v>
@@ -6428,7 +6428,7 @@
     <row r="187" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59572287541369595</v>
+        <v>4.2191060844136374E-2</v>
       </c>
       <c r="B187" s="2">
         <v>284</v>
@@ -6449,7 +6449,7 @@
     <row r="188" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39295964130314964</v>
+        <v>0.12519838588913101</v>
       </c>
       <c r="B188" s="2">
         <v>355</v>
@@ -6476,7 +6476,7 @@
     <row r="189" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31901474021808673</v>
+        <v>0.26715277764903211</v>
       </c>
       <c r="B189" s="2">
         <v>141</v>
@@ -6500,7 +6500,7 @@
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45195052287845716</v>
+        <v>0.30691381352018676</v>
       </c>
       <c r="B190" s="2">
         <v>303</v>
@@ -6524,7 +6524,7 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27697474578252856</v>
+        <v>3.3438715692810206E-2</v>
       </c>
       <c r="B191" s="2">
         <v>25</v>
@@ -6548,7 +6548,7 @@
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25037672401104805</v>
+        <v>0.8650642125245277</v>
       </c>
       <c r="B192" s="2">
         <v>350</v>
@@ -6572,7 +6572,7 @@
     <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41302317140945455</v>
+        <v>0.84339999977004165</v>
       </c>
       <c r="B193" s="2">
         <v>370</v>
@@ -6599,7 +6599,7 @@
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.45387885812737694</v>
+        <v>0.31598843540384958</v>
       </c>
       <c r="B194" s="2">
         <v>151</v>
@@ -6623,7 +6623,7 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47269332726073532</v>
+        <v>0.96419983981386126</v>
       </c>
       <c r="B195" s="2">
         <v>254</v>
@@ -6647,7 +6647,7 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.717415061618671E-2</v>
+        <v>0.83397314303417824</v>
       </c>
       <c r="B196" s="2">
         <v>258</v>
@@ -6668,7 +6668,7 @@
     <row r="197" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7447862867642465E-2</v>
+        <v>0.43298901312363847</v>
       </c>
       <c r="B197" s="2">
         <v>376</v>
@@ -6692,7 +6692,7 @@
     <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94446051848761314</v>
+        <v>0.13116634309871489</v>
       </c>
       <c r="B198" s="2">
         <v>96</v>
@@ -6713,7 +6713,7 @@
     <row r="199" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66915102423374129</v>
+        <v>0.28217759120197139</v>
       </c>
       <c r="B199" s="2">
         <v>277</v>
@@ -6734,7 +6734,7 @@
     <row r="200" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47263995332521558</v>
+        <v>0.16669641710790351</v>
       </c>
       <c r="B200" s="2">
         <v>286</v>
@@ -6758,7 +6758,7 @@
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76062025399946087</v>
+        <v>0.55778351173912566</v>
       </c>
       <c r="B201" s="2">
         <v>378</v>
@@ -6785,7 +6785,7 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29269910684619893</v>
+        <v>0.1449193904042706</v>
       </c>
       <c r="B202" s="2">
         <v>114</v>
@@ -6809,7 +6809,7 @@
     <row r="203" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45493350544610545</v>
+        <v>0.67966980162594259</v>
       </c>
       <c r="B203" s="2">
         <v>3</v>
@@ -6833,7 +6833,7 @@
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91591191579785158</v>
+        <v>0.22469036566567602</v>
       </c>
       <c r="B204" s="2">
         <v>72</v>
@@ -6860,7 +6860,7 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8444564784886928E-2</v>
+        <v>0.42586081973849432</v>
       </c>
       <c r="B205" s="2">
         <v>253</v>
@@ -6881,7 +6881,7 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4546345048318523</v>
+        <v>0.60440502868353774</v>
       </c>
       <c r="B206" s="2">
         <v>172</v>
@@ -6902,7 +6902,7 @@
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81603878167688138</v>
+        <v>0.36320855500330207</v>
       </c>
       <c r="B207" s="2">
         <v>194</v>
@@ -6926,7 +6926,7 @@
     <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85401463485966067</v>
+        <v>0.17911908464849746</v>
       </c>
       <c r="B208" s="2">
         <v>232</v>
@@ -6953,7 +6953,7 @@
     <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5353594605652838E-2</v>
+        <v>0.90609529544059275</v>
       </c>
       <c r="B209" s="2">
         <v>312</v>
@@ -6974,7 +6974,7 @@
     <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6518865232595092E-2</v>
+        <v>0.62093097228064076</v>
       </c>
       <c r="B210" s="2">
         <v>372</v>
@@ -6995,7 +6995,7 @@
     <row r="211" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18595030350151021</v>
+        <v>0.90057987211920099</v>
       </c>
       <c r="B211" s="2">
         <v>46</v>
@@ -7016,7 +7016,7 @@
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38185090279721789</v>
+        <v>5.9511530848039618E-2</v>
       </c>
       <c r="B212" s="2">
         <v>244</v>
@@ -7040,7 +7040,7 @@
     <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54922676285247307</v>
+        <v>0.22426737754400772</v>
       </c>
       <c r="B213" s="2">
         <v>110</v>
@@ -7061,7 +7061,7 @@
     <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52458535419626728</v>
+        <v>0.69173034893995633</v>
       </c>
       <c r="B214" s="2">
         <v>182</v>
@@ -7082,7 +7082,7 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57914103226392688</v>
+        <v>0.74557983338796097</v>
       </c>
       <c r="B215" s="2">
         <v>352</v>
@@ -7106,7 +7106,7 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41001685702084034</v>
+        <v>0.70389726699260957</v>
       </c>
       <c r="B216" s="2">
         <v>257</v>
@@ -7127,7 +7127,7 @@
     <row r="217" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6027975802878579</v>
+        <v>0.79197898121135213</v>
       </c>
       <c r="B217" s="2">
         <v>189</v>
@@ -7154,7 +7154,7 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58559767041105326</v>
+        <v>0.19062868957810186</v>
       </c>
       <c r="B218" s="2">
         <v>62</v>
@@ -7175,7 +7175,7 @@
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73344722418668817</v>
+        <v>0.60002514962524212</v>
       </c>
       <c r="B219" s="2">
         <v>75</v>
@@ -7196,7 +7196,7 @@
     <row r="220" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7192320857875043</v>
+        <v>0.5227834613260538</v>
       </c>
       <c r="B220" s="2">
         <v>85</v>
@@ -7217,7 +7217,7 @@
     <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37431904460426169</v>
+        <v>0.89006357116940571</v>
       </c>
       <c r="B221" s="2">
         <v>199</v>
@@ -7238,7 +7238,7 @@
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88884268742963624</v>
+        <v>0.93152341180502507</v>
       </c>
       <c r="B222" s="2">
         <v>292</v>
@@ -7265,7 +7265,7 @@
     <row r="223" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25569433872591418</v>
+        <v>0.67420331698847302</v>
       </c>
       <c r="B223" s="2">
         <v>146</v>
@@ -7289,7 +7289,7 @@
     <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93708537332366426</v>
+        <v>0.29342927911218464</v>
       </c>
       <c r="B224" s="2">
         <v>278</v>
@@ -7310,7 +7310,7 @@
     <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51677255104177366</v>
+        <v>0.77435181551328691</v>
       </c>
       <c r="B225" s="2">
         <v>120</v>
@@ -7334,7 +7334,7 @@
     <row r="226" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97429614789403407</v>
+        <v>0.11508913210059335</v>
       </c>
       <c r="B226" s="2">
         <v>123</v>
@@ -7358,7 +7358,7 @@
     <row r="227" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77147444203762494</v>
+        <v>0.39497717739994853</v>
       </c>
       <c r="B227" s="2">
         <v>32</v>
@@ -7379,7 +7379,7 @@
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80007806461348574</v>
+        <v>0.24545158628935937</v>
       </c>
       <c r="B228" s="2">
         <v>64</v>
@@ -7403,7 +7403,7 @@
     <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32904604941414084</v>
+        <v>0.85200938897852396</v>
       </c>
       <c r="B229" s="2">
         <v>26</v>
@@ -7424,7 +7424,7 @@
     <row r="230" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46272882144528371</v>
+        <v>0.28854204167358188</v>
       </c>
       <c r="B230" s="2">
         <v>17</v>
@@ -7445,7 +7445,7 @@
     <row r="231" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61128824727899411</v>
+        <v>0.76588808272839359</v>
       </c>
       <c r="B231" s="2">
         <v>22</v>
@@ -7466,7 +7466,7 @@
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92638892364270964</v>
+        <v>0.74153403781762373</v>
       </c>
       <c r="B232" s="2">
         <v>270</v>
@@ -7490,7 +7490,7 @@
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73410146338307325</v>
+        <v>0.36610224671720737</v>
       </c>
       <c r="B233" s="2">
         <v>103</v>
@@ -7511,7 +7511,7 @@
     <row r="234" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53397197094539395</v>
+        <v>0.43672061477676538</v>
       </c>
       <c r="B234" s="2">
         <v>362</v>
@@ -7535,7 +7535,7 @@
     <row r="235" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17165601274273956</v>
+        <v>0.71736625883339222</v>
       </c>
       <c r="B235" s="2">
         <v>23</v>
@@ -7559,7 +7559,7 @@
     <row r="236" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59533667957898695</v>
+        <v>0.12962035947342432</v>
       </c>
       <c r="B236" s="2">
         <v>358</v>
@@ -7583,7 +7583,7 @@
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19781137509393332</v>
+        <v>0.51270031008230232</v>
       </c>
       <c r="B237" s="2">
         <v>33</v>
@@ -7607,7 +7607,7 @@
     <row r="238" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18945120571871299</v>
+        <v>0.8693236414605211</v>
       </c>
       <c r="B238" s="2">
         <v>269</v>
@@ -7628,7 +7628,7 @@
     <row r="239" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80532894446426651</v>
+        <v>0.64604210159149456</v>
       </c>
       <c r="B239" s="2">
         <v>50</v>
@@ -7649,7 +7649,7 @@
     <row r="240" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39893141639396701</v>
+        <v>0.73875378189552665</v>
       </c>
       <c r="B240" s="2">
         <v>294</v>
@@ -7673,7 +7673,7 @@
     <row r="241" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0606088257334516E-2</v>
+        <v>0.54258098669201427</v>
       </c>
       <c r="B241" s="2">
         <v>379</v>
@@ -7697,7 +7697,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96942741255350351</v>
+        <v>0.43969050183006431</v>
       </c>
       <c r="B242" s="2">
         <v>175</v>
@@ -7721,7 +7721,7 @@
     <row r="243" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60887502016830364</v>
+        <v>5.819919987532951E-3</v>
       </c>
       <c r="B243" s="2">
         <v>369</v>
@@ -7745,7 +7745,7 @@
     <row r="244" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.185180626292297E-2</v>
+        <v>0.27033565658033776</v>
       </c>
       <c r="B244" s="2">
         <v>334</v>
@@ -7769,7 +7769,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78146786547574032</v>
+        <v>0.991395327852721</v>
       </c>
       <c r="B245" s="2">
         <v>351</v>
@@ -7796,7 +7796,7 @@
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99853267269343193</v>
+        <v>0.91028265879847625</v>
       </c>
       <c r="B246" s="2">
         <v>181</v>
@@ -7817,7 +7817,7 @@
     <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31812132225070699</v>
+        <v>0.5746276303204485</v>
       </c>
       <c r="B247" s="2">
         <v>293</v>
@@ -7841,7 +7841,7 @@
     <row r="248" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46197123720350097</v>
+        <v>0.22117291284926921</v>
       </c>
       <c r="B248" s="2">
         <v>363</v>
@@ -7865,7 +7865,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41503583289691248</v>
+        <v>0.92246838229557893</v>
       </c>
       <c r="B249" s="2">
         <v>217</v>
@@ -7889,7 +7889,7 @@
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56196814040773013</v>
+        <v>0.79341384058908981</v>
       </c>
       <c r="B250" s="2">
         <v>111</v>
@@ -7913,7 +7913,7 @@
     <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87857104875240544</v>
+        <v>0.20970094873678391</v>
       </c>
       <c r="B251" s="2">
         <v>67</v>
@@ -7934,7 +7934,7 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90526787650968288</v>
+        <v>0.59392540806330829</v>
       </c>
       <c r="B252" s="2">
         <v>297</v>
@@ -7955,7 +7955,7 @@
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45383300187102127</v>
+        <v>0.1885208236150856</v>
       </c>
       <c r="B253" s="2">
         <v>320</v>
@@ -7979,7 +7979,7 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71890014793510193</v>
+        <v>0.58114562552392091</v>
       </c>
       <c r="B254" s="2">
         <v>215</v>
@@ -8003,7 +8003,7 @@
     <row r="255" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7766893554650718E-2</v>
+        <v>0.60112105997258625</v>
       </c>
       <c r="B255" s="2">
         <v>368</v>
@@ -8027,7 +8027,7 @@
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6158385871397432E-2</v>
+        <v>0.4523636081370076</v>
       </c>
       <c r="B256" s="2">
         <v>127</v>
@@ -8048,7 +8048,7 @@
     <row r="257" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18964035934883949</v>
+        <v>0.30016101896362835</v>
       </c>
       <c r="B257" s="2">
         <v>205</v>
@@ -8072,7 +8072,7 @@
     <row r="258" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A321" ca="1" si="4">RAND()</f>
-        <v>0.62849991719200038</v>
+        <v>0.41724952707480389</v>
       </c>
       <c r="B258" s="2">
         <v>330</v>
@@ -8096,7 +8096,7 @@
     <row r="259" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58813448454222528</v>
+        <v>0.8363494261004133</v>
       </c>
       <c r="B259" s="2">
         <v>105</v>
@@ -8126,7 +8126,7 @@
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50959748944110406</v>
+        <v>0.21022004790249182</v>
       </c>
       <c r="B260" s="2">
         <v>24</v>
@@ -8147,7 +8147,7 @@
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59647565509530254</v>
+        <v>0.56633159733121408</v>
       </c>
       <c r="B261" s="2">
         <v>367</v>
@@ -8168,7 +8168,7 @@
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2430435817829912E-2</v>
+        <v>0.61363596350655936</v>
       </c>
       <c r="B262" s="2">
         <v>259</v>
@@ -8192,7 +8192,7 @@
     <row r="263" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70581633645678887</v>
+        <v>0.37880151308044818</v>
       </c>
       <c r="B263" s="2">
         <v>47</v>
@@ -8213,7 +8213,7 @@
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86942834162042049</v>
+        <v>0.29742277986558685</v>
       </c>
       <c r="B264" s="2">
         <v>347</v>
@@ -8237,7 +8237,7 @@
     <row r="265" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89254546990202688</v>
+        <v>0.64235756212581963</v>
       </c>
       <c r="B265" s="2">
         <v>248</v>
@@ -8261,7 +8261,7 @@
     <row r="266" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61679391709217823</v>
+        <v>0.5289769623147732</v>
       </c>
       <c r="B266" s="2">
         <v>310</v>
@@ -8285,7 +8285,7 @@
     <row r="267" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83696556152052681</v>
+        <v>0.59909984254228688</v>
       </c>
       <c r="B267" s="2">
         <v>119</v>
@@ -8312,7 +8312,7 @@
     <row r="268" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40646334440654874</v>
+        <v>0.57554505245921661</v>
       </c>
       <c r="B268" s="2">
         <v>28</v>
@@ -8333,7 +8333,7 @@
     <row r="269" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29419409391084939</v>
+        <v>0.40096427135801482</v>
       </c>
       <c r="B269" s="2">
         <v>374</v>
@@ -8357,7 +8357,7 @@
     <row r="270" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41404223987720445</v>
+        <v>0.81638094600652023</v>
       </c>
       <c r="B270" s="2">
         <v>99</v>
@@ -8384,7 +8384,7 @@
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9895540419526363</v>
+        <v>0.94510294066357536</v>
       </c>
       <c r="B271" s="2">
         <v>174</v>
@@ -8408,7 +8408,7 @@
     <row r="272" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82915190968843588</v>
+        <v>0.86519252066036501</v>
       </c>
       <c r="B272" s="2">
         <v>1</v>
@@ -8432,7 +8432,7 @@
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61462185255747082</v>
+        <v>0.32523631510188777</v>
       </c>
       <c r="B273" s="2">
         <v>331</v>
@@ -8456,7 +8456,7 @@
     <row r="274" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86302498038802278</v>
+        <v>0.41557606319627372</v>
       </c>
       <c r="B274" s="2">
         <v>162</v>
@@ -8480,7 +8480,7 @@
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85426821081147764</v>
+        <v>0.9245475359254588</v>
       </c>
       <c r="B275" s="2">
         <v>113</v>
@@ -8504,7 +8504,7 @@
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64855306095613374</v>
+        <v>0.292913989413772</v>
       </c>
       <c r="B276" s="2">
         <v>250</v>
@@ -8528,7 +8528,7 @@
     <row r="277" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10007372652426527</v>
+        <v>0.5606006526104238</v>
       </c>
       <c r="B277" s="2">
         <v>20</v>
@@ -8549,7 +8549,7 @@
     <row r="278" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12311964629026451</v>
+        <v>0.98769814174774362</v>
       </c>
       <c r="B278" s="2">
         <v>78</v>
@@ -8573,7 +8573,7 @@
     <row r="279" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57738474915350035</v>
+        <v>0.4304772346598239</v>
       </c>
       <c r="B279" s="2">
         <v>202</v>
@@ -8597,7 +8597,7 @@
     <row r="280" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86517552459178515</v>
+        <v>0.15883545952453293</v>
       </c>
       <c r="B280" s="2">
         <v>13</v>
@@ -8621,7 +8621,7 @@
     <row r="281" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13994661932314678</v>
+        <v>0.74708251548935478</v>
       </c>
       <c r="B281" s="2">
         <v>201</v>
@@ -8645,7 +8645,7 @@
     <row r="282" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3074049177770507</v>
+        <v>0.37043051440173813</v>
       </c>
       <c r="B282" s="2">
         <v>79</v>
@@ -8666,7 +8666,7 @@
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64819238652773403</v>
+        <v>7.3333542062828938E-2</v>
       </c>
       <c r="B283" s="2">
         <v>61</v>
@@ -8687,7 +8687,7 @@
     <row r="284" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81628849696731731</v>
+        <v>0.5130574164038646</v>
       </c>
       <c r="B284" s="2">
         <v>30</v>
@@ -8711,7 +8711,7 @@
     <row r="285" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16917987120565314</v>
+        <v>0.88958929671727305</v>
       </c>
       <c r="B285" s="2">
         <v>82</v>
@@ -8732,7 +8732,7 @@
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38120707664886455</v>
+        <v>0.68448101828382546</v>
       </c>
       <c r="B286" s="2">
         <v>315</v>
@@ -8756,7 +8756,7 @@
     <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67812037575000939</v>
+        <v>0.72043049755392419</v>
       </c>
       <c r="B287" s="2">
         <v>338</v>
@@ -8777,7 +8777,7 @@
     <row r="288" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37066308096670286</v>
+        <v>0.63123868922132331</v>
       </c>
       <c r="B288" s="2">
         <v>183</v>
@@ -8798,7 +8798,7 @@
     <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16270787254144481</v>
+        <v>0.7301279259370661</v>
       </c>
       <c r="B289" s="2">
         <v>332</v>
@@ -8822,7 +8822,7 @@
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35201197735252088</v>
+        <v>0.12379431050062784</v>
       </c>
       <c r="B290" s="2">
         <v>240</v>
@@ -8843,7 +8843,7 @@
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52262858088659547</v>
+        <v>4.314783809502365E-2</v>
       </c>
       <c r="B291" s="2">
         <v>10</v>
@@ -8867,7 +8867,7 @@
     <row r="292" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5379110889855534</v>
+        <v>0.33182336918261657</v>
       </c>
       <c r="B292" s="2">
         <v>249</v>
@@ -8894,7 +8894,7 @@
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95108784963918713</v>
+        <v>0.44332516291399127</v>
       </c>
       <c r="B293" s="2">
         <v>238</v>
@@ -8915,7 +8915,7 @@
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41549478923421312</v>
+        <v>0.94855993925830451</v>
       </c>
       <c r="B294" s="2">
         <v>95</v>
@@ -8939,7 +8939,7 @@
     <row r="295" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70921052460091061</v>
+        <v>0.79107454718203341</v>
       </c>
       <c r="B295" s="2">
         <v>168</v>
@@ -8960,7 +8960,7 @@
     <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20271005514773377</v>
+        <v>0.24089921993011054</v>
       </c>
       <c r="B296" s="2">
         <v>271</v>
@@ -8981,7 +8981,7 @@
     <row r="297" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72610748186051766</v>
+        <v>3.4424843987157727E-2</v>
       </c>
       <c r="B297" s="2">
         <v>345</v>
@@ -9005,7 +9005,7 @@
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96531201131103062</v>
+        <v>0.50040587786135504</v>
       </c>
       <c r="B298" s="2">
         <v>229</v>
@@ -9026,7 +9026,7 @@
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97409003523237769</v>
+        <v>0.77560926045383494</v>
       </c>
       <c r="B299" s="2">
         <v>206</v>
@@ -9047,7 +9047,7 @@
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.608961347391241E-2</v>
+        <v>0.7914890523204039</v>
       </c>
       <c r="B300" s="2">
         <v>207</v>
@@ -9071,7 +9071,7 @@
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6139904927690395</v>
+        <v>0.37181366258784698</v>
       </c>
       <c r="B301" s="2">
         <v>190</v>
@@ -9095,7 +9095,7 @@
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24164029878179194</v>
+        <v>0.88157381449179795</v>
       </c>
       <c r="B302" s="2">
         <v>102</v>
@@ -9119,7 +9119,7 @@
     <row r="303" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76033398970225508</v>
+        <v>0.99115638755743085</v>
       </c>
       <c r="B303" s="2">
         <v>375</v>
@@ -9146,7 +9146,7 @@
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74753742066469564</v>
+        <v>0.23735543695384287</v>
       </c>
       <c r="B304" s="2">
         <v>149</v>
@@ -9170,7 +9170,7 @@
     <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53100858626388325</v>
+        <v>0.40004099784534752</v>
       </c>
       <c r="B305" s="2">
         <v>318</v>
@@ -9194,7 +9194,7 @@
     <row r="306" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34525223550988982</v>
+        <v>0.25601252868265745</v>
       </c>
       <c r="B306" s="2">
         <v>88</v>
@@ -9218,7 +9218,7 @@
     <row r="307" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76777125901570709</v>
+        <v>0.93272275851738817</v>
       </c>
       <c r="B307" s="2">
         <v>276</v>
@@ -9245,7 +9245,7 @@
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10752209890084241</v>
+        <v>0.48422943509171557</v>
       </c>
       <c r="B308" s="2">
         <v>354</v>
@@ -9266,7 +9266,7 @@
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53564736657683332</v>
+        <v>0.98909844928103485</v>
       </c>
       <c r="B309" s="2">
         <v>224</v>
@@ -9287,7 +9287,7 @@
     <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22564830031331551</v>
+        <v>0.18823911769423218</v>
       </c>
       <c r="B310" s="2">
         <v>117</v>
@@ -9314,7 +9314,7 @@
     <row r="311" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18627832567654501</v>
+        <v>0.30269033668211986</v>
       </c>
       <c r="B311" s="2">
         <v>36</v>
@@ -9341,7 +9341,7 @@
     <row r="312" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3966257331406583</v>
+        <v>0.40542300952307431</v>
       </c>
       <c r="B312" s="2">
         <v>291</v>
@@ -9362,7 +9362,7 @@
     <row r="313" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.4586313836004789E-2</v>
+        <v>0.42050582071915199</v>
       </c>
       <c r="B313" s="2">
         <v>15</v>
@@ -9383,7 +9383,7 @@
     <row r="314" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55457897459366223</v>
+        <v>0.59283676486275094</v>
       </c>
       <c r="B314" s="2">
         <v>44</v>
@@ -9407,7 +9407,7 @@
     <row r="315" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11848973605837254</v>
+        <v>0.17794839542418206</v>
       </c>
       <c r="B315" s="2">
         <v>161</v>
@@ -9434,7 +9434,7 @@
     <row r="316" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56583947686613301</v>
+        <v>0.54414578147878878</v>
       </c>
       <c r="B316" s="2">
         <v>16</v>
@@ -9455,7 +9455,7 @@
     <row r="317" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52378439190955262</v>
+        <v>8.5915454060261243E-2</v>
       </c>
       <c r="B317" s="2">
         <v>37</v>
@@ -9479,7 +9479,7 @@
     <row r="318" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26300751086150154</v>
+        <v>0.25452255903545151</v>
       </c>
       <c r="B318" s="2">
         <v>179</v>
@@ -9506,7 +9506,7 @@
     <row r="319" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65363807495693427</v>
+        <v>0.1918915929685584</v>
       </c>
       <c r="B319" s="2">
         <v>203</v>
@@ -9530,7 +9530,7 @@
     <row r="320" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89456983168010362</v>
+        <v>0.36711874517244891</v>
       </c>
       <c r="B320" s="2">
         <v>43</v>
@@ -9551,7 +9551,7 @@
     <row r="321" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33292114386260996</v>
+        <v>0.61797858045185317</v>
       </c>
       <c r="B321" s="2">
         <v>81</v>
@@ -9572,7 +9572,7 @@
     <row r="322" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <f t="shared" ref="A322:A380" ca="1" si="5">RAND()</f>
-        <v>0.16754596215763728</v>
+        <v>0.66171002697060077</v>
       </c>
       <c r="B322" s="2">
         <v>159</v>
@@ -9596,7 +9596,7 @@
     <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22652137382394466</v>
+        <v>0.16491807980250384</v>
       </c>
       <c r="B323" s="2">
         <v>223</v>
@@ -9623,7 +9623,7 @@
     <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95646547752457978</v>
+        <v>0.72321702867670257</v>
       </c>
       <c r="B324" s="2">
         <v>309</v>
@@ -9650,7 +9650,7 @@
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13594169727736927</v>
+        <v>0.36379994920633918</v>
       </c>
       <c r="B325" s="2">
         <v>247</v>
@@ -9671,7 +9671,7 @@
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95143514444410904</v>
+        <v>0.4334772563586633</v>
       </c>
       <c r="B326" s="2">
         <v>173</v>
@@ -9695,7 +9695,7 @@
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99116022588077091</v>
+        <v>0.88689634110505633</v>
       </c>
       <c r="B327" s="2">
         <v>74</v>
@@ -9719,7 +9719,7 @@
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96939945916982917</v>
+        <v>0.97027840288051959</v>
       </c>
       <c r="B328" s="2">
         <v>158</v>
@@ -9743,7 +9743,7 @@
     <row r="329" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67814873437946643</v>
+        <v>0.84648899144959777</v>
       </c>
       <c r="B329" s="2">
         <v>108</v>
@@ -9767,7 +9767,7 @@
     <row r="330" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60496364707159833</v>
+        <v>0.97888628409201017</v>
       </c>
       <c r="B330" s="2">
         <v>52</v>
@@ -9788,7 +9788,7 @@
     <row r="331" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2402831916336825</v>
+        <v>0.85052435180654162</v>
       </c>
       <c r="B331" s="2">
         <v>2</v>
@@ -9812,7 +9812,7 @@
     <row r="332" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73362585061701557</v>
+        <v>0.76262627382495818</v>
       </c>
       <c r="B332" s="2">
         <v>220</v>
@@ -9833,7 +9833,7 @@
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83312541002050933</v>
+        <v>6.2147836274539681E-2</v>
       </c>
       <c r="B333" s="2">
         <v>214</v>
@@ -9860,7 +9860,7 @@
     <row r="334" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52559306549349216</v>
+        <v>0.24539962738602428</v>
       </c>
       <c r="B334" s="2">
         <v>319</v>
@@ -9887,7 +9887,7 @@
     <row r="335" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42619289497917257</v>
+        <v>5.5797957929676789E-2</v>
       </c>
       <c r="B335" s="2">
         <v>137</v>
@@ -9914,7 +9914,7 @@
     <row r="336" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31444310896508965</v>
+        <v>0.55491471116899826</v>
       </c>
       <c r="B336" s="2">
         <v>129</v>
@@ -9941,7 +9941,7 @@
     <row r="337" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66922295352821382</v>
+        <v>0.87780604044672805</v>
       </c>
       <c r="B337" s="2">
         <v>322</v>
@@ -9968,7 +9968,7 @@
     <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51248964656267615</v>
+        <v>0.53429478455521984</v>
       </c>
       <c r="B338" s="2">
         <v>272</v>
@@ -9989,7 +9989,7 @@
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64606822630776028</v>
+        <v>0.60118337692702983</v>
       </c>
       <c r="B339" s="2">
         <v>213</v>
@@ -10010,7 +10010,7 @@
     <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26219822283449346</v>
+        <v>7.2296671822328684E-2</v>
       </c>
       <c r="B340" s="2">
         <v>8</v>
@@ -10031,7 +10031,7 @@
     <row r="341" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62638691876481378</v>
+        <v>0.86253621486849763</v>
       </c>
       <c r="B341" s="2">
         <v>357</v>
@@ -10052,7 +10052,7 @@
     <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99673149450676102</v>
+        <v>0.26695100970165264</v>
       </c>
       <c r="B342" s="2">
         <v>304</v>
@@ -10079,7 +10079,7 @@
     <row r="343" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79456576461526596</v>
+        <v>0.89617800532152547</v>
       </c>
       <c r="B343" s="2">
         <v>7</v>
@@ -10100,7 +10100,7 @@
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72215660001202664</v>
+        <v>0.95238203638336083</v>
       </c>
       <c r="B344" s="2">
         <v>280</v>
@@ -10124,7 +10124,7 @@
     <row r="345" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26465236125219294</v>
+        <v>0.99133427373451244</v>
       </c>
       <c r="B345" s="2">
         <v>323</v>
@@ -10148,7 +10148,7 @@
     <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47777992927043267</v>
+        <v>0.8282593716948693</v>
       </c>
       <c r="B346" s="2">
         <v>40</v>
@@ -10169,7 +10169,7 @@
     <row r="347" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87535972619235392</v>
+        <v>0.3927130563286455</v>
       </c>
       <c r="B347" s="2">
         <v>59</v>
@@ -10193,7 +10193,7 @@
     <row r="348" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47693002225454273</v>
+        <v>0.87850534518242729</v>
       </c>
       <c r="B348" s="2">
         <v>145</v>
@@ -10220,7 +10220,7 @@
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17260921316412958</v>
+        <v>0.96960840948770022</v>
       </c>
       <c r="B349" s="2">
         <v>148</v>
@@ -10244,7 +10244,7 @@
     <row r="350" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13092957089932666</v>
+        <v>0.70212665368263349</v>
       </c>
       <c r="B350" s="2">
         <v>343</v>
@@ -10265,7 +10265,7 @@
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5331553234461501E-2</v>
+        <v>0.53423471528199962</v>
       </c>
       <c r="B351" s="2">
         <v>65</v>
@@ -10286,7 +10286,7 @@
     <row r="352" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51537384423858945</v>
+        <v>0.46311832051247226</v>
       </c>
       <c r="B352" s="2">
         <v>41</v>
@@ -10307,7 +10307,7 @@
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37365546890018786</v>
+        <v>8.9454031378321974E-2</v>
       </c>
       <c r="B353" s="2">
         <v>134</v>
@@ -10334,7 +10334,7 @@
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69404037204303715</v>
+        <v>0.80094061206414446</v>
       </c>
       <c r="B354" s="2">
         <v>157</v>
@@ -10358,7 +10358,7 @@
     <row r="355" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41698821008875497</v>
+        <v>0.42839913737069757</v>
       </c>
       <c r="B355" s="2">
         <v>335</v>
@@ -10382,7 +10382,7 @@
     <row r="356" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2352448848456471</v>
+        <v>0.96356080393092136</v>
       </c>
       <c r="B356" s="2">
         <v>342</v>
@@ -10403,7 +10403,7 @@
     <row r="357" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50454987241660831</v>
+        <v>0.70357032388652052</v>
       </c>
       <c r="B357" s="2">
         <v>165</v>
@@ -10424,7 +10424,7 @@
     <row r="358" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32316108177209024</v>
+        <v>0.54047593708234243</v>
       </c>
       <c r="B358" s="2">
         <v>273</v>
@@ -10445,7 +10445,7 @@
     <row r="359" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65718287465369685</v>
+        <v>0.84592543043360002</v>
       </c>
       <c r="B359" s="2">
         <v>63</v>
@@ -10466,7 +10466,7 @@
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25677810718727301</v>
+        <v>0.93697484692884669</v>
       </c>
       <c r="B360" s="2">
         <v>188</v>
@@ -10490,7 +10490,7 @@
     <row r="361" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84870297540523343</v>
+        <v>0.13427107137153893</v>
       </c>
       <c r="B361" s="2">
         <v>227</v>
@@ -10511,7 +10511,7 @@
     <row r="362" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6217726795462526E-2</v>
+        <v>0.78637795871956873</v>
       </c>
       <c r="B362" s="2">
         <v>171</v>
@@ -10535,7 +10535,7 @@
     <row r="363" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60456629082397007</v>
+        <v>0.73314701603209298</v>
       </c>
       <c r="B363" s="2">
         <v>196</v>
@@ -10565,7 +10565,7 @@
     <row r="364" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5423457693672864</v>
+        <v>0.21315328171181758</v>
       </c>
       <c r="B364" s="2">
         <v>356</v>
@@ -10589,7 +10589,7 @@
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2658865710533187</v>
+        <v>0.65065524083344606</v>
       </c>
       <c r="B365" s="2">
         <v>147</v>
@@ -10613,7 +10613,7 @@
     <row r="366" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73855373113819911</v>
+        <v>0.7898276410042796</v>
       </c>
       <c r="B366" s="2">
         <v>326</v>
@@ -10637,7 +10637,7 @@
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94106713248278595</v>
+        <v>0.95121574644578843</v>
       </c>
       <c r="B367" s="2">
         <v>218</v>
@@ -10661,7 +10661,7 @@
     <row r="368" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6731338824857072E-2</v>
+        <v>2.6853173221034088E-2</v>
       </c>
       <c r="B368" s="2">
         <v>107</v>
@@ -10682,7 +10682,7 @@
     <row r="369" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57079253003562325</v>
+        <v>0.61850108894162814</v>
       </c>
       <c r="B369" s="2">
         <v>234</v>
@@ -10706,7 +10706,7 @@
     <row r="370" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49497257787347193</v>
+        <v>0.97654328577757588</v>
       </c>
       <c r="B370" s="2">
         <v>140</v>
@@ -10730,7 +10730,7 @@
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63914209406306699</v>
+        <v>0.18836003814202906</v>
       </c>
       <c r="B371" s="2">
         <v>226</v>
@@ -10757,7 +10757,7 @@
     <row r="372" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39923366796403614</v>
+        <v>0.16942360354971431</v>
       </c>
       <c r="B372" s="2">
         <v>327</v>
@@ -10781,7 +10781,7 @@
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54609556246757562</v>
+        <v>0.69535477262764145</v>
       </c>
       <c r="B373" s="2">
         <v>150</v>
@@ -10808,7 +10808,7 @@
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56727631686753321</v>
+        <v>0.75453809188204835</v>
       </c>
       <c r="B374" s="2">
         <v>216</v>
@@ -10829,7 +10829,7 @@
     <row r="375" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60114551535983152</v>
+        <v>0.45434200776050071</v>
       </c>
       <c r="B375" s="2">
         <v>170</v>
@@ -10853,7 +10853,7 @@
     <row r="376" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41268771102193069</v>
+        <v>0.41597414806288968</v>
       </c>
       <c r="B376" s="2">
         <v>295</v>
@@ -10877,7 +10877,7 @@
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89914469612456893</v>
+        <v>0.81973787326258774</v>
       </c>
       <c r="B377" s="2">
         <v>282</v>
@@ -10901,7 +10901,7 @@
     <row r="378" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37383604714622587</v>
+        <v>0.63732177364705411</v>
       </c>
       <c r="B378" s="2">
         <v>364</v>
@@ -10925,7 +10925,7 @@
     <row r="379" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9592178720549811</v>
+        <v>0.22155121925048515</v>
       </c>
       <c r="B379" s="2">
         <v>6</v>
@@ -10949,7 +10949,7 @@
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72863534861163637</v>
+        <v>0.96692908676387657</v>
       </c>
       <c r="B380" s="2">
         <v>34</v>
@@ -11059,7 +11059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+    <sheetView topLeftCell="A366" workbookViewId="0">
       <selection activeCell="C383" sqref="C383"/>
     </sheetView>
   </sheetViews>
